--- a/Upload/xls/impolt_store.xlsx
+++ b/Upload/xls/impolt_store.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>登录用户名</t>
+  </si>
   <si>
     <t>品牌名称</t>
   </si>
@@ -57,13 +60,13 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>anta</t>
+  </si>
+  <si>
     <t>安踏</t>
   </si>
   <si>
     <t>安踏体育</t>
-  </si>
-  <si>
-    <t>anta</t>
   </si>
   <si>
     <t>2016-12-02</t>
@@ -92,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,6 +111,80 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,41 +213,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,58 +247,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -259,6 +262,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,19 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,90 +419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +453,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,36 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -528,25 +540,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,144 +573,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,75 +1063,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:13">
+    <row r="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:13">
+    <row r="2" ht="20" customHeight="1" spans="1:17">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
@@ -1131,24 +1144,30 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
         <v>2015</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
         <v>125</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
         <v>13258241203</v>
       </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="20" customHeight="1"/>

--- a/Upload/xls/impolt_store.xlsx
+++ b/Upload/xls/impolt_store.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="19365" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
-  <si>
-    <t>登录用户名</t>
-  </si>
-  <si>
-    <t>品牌名称</t>
-  </si>
-  <si>
-    <t>商家名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>品牌名称*</t>
+  </si>
+  <si>
+    <t>商家名称*</t>
   </si>
   <si>
     <t>英文名称</t>
@@ -36,7 +33,7 @@
     <t>商家类型</t>
   </si>
   <si>
-    <t>营业状态</t>
+    <t>营业状态（营业中，装修中，即将营业）</t>
   </si>
   <si>
     <t>所在楼层</t>
@@ -45,33 +42,30 @@
     <t>店铺编号</t>
   </si>
   <si>
+    <t>面积</t>
+  </si>
+  <si>
     <t>营业时间</t>
   </si>
   <si>
-    <t>面积</t>
-  </si>
-  <si>
-    <t>商家一级业态</t>
-  </si>
-  <si>
-    <t>商家二级业态</t>
+    <t>商家一级业态(必须后台已经存在)</t>
+  </si>
+  <si>
+    <t>商家二级业态（必须后台已经存在）</t>
   </si>
   <si>
     <t>联系电话</t>
   </si>
   <si>
+    <t>安踏</t>
+  </si>
+  <si>
+    <t>安踏体育</t>
+  </si>
+  <si>
     <t>anta</t>
   </si>
   <si>
-    <t>安踏</t>
-  </si>
-  <si>
-    <t>安踏体育</t>
-  </si>
-  <si>
-    <t>2016-12-02</t>
-  </si>
-  <si>
     <t>普通</t>
   </si>
   <si>
@@ -82,12 +76,6 @@
   </si>
   <si>
     <t>9:00-20:00</t>
-  </si>
-  <si>
-    <t>askhd</t>
-  </si>
-  <si>
-    <t>运动户外</t>
   </si>
 </sst>
 </file>
@@ -95,12 +83,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +97,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -116,6 +120,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -124,8 +188,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -133,20 +212,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,45 +219,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,53 +248,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,25 +258,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,164 +442,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -457,16 +453,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +517,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,30 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,137 +584,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,8 +724,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1063,111 +1086,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="13.625" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="8" max="11" width="15.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="33.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:17">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5">
+        <v>42706</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>2015</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>125</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="2">
         <v>13258241203</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="20" customHeight="1"/>
